--- a/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
+++ b/Descargas/R15_11º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Noviembre.xlsx
@@ -931,7 +931,7 @@
         </is>
       </c>
       <c r="B73" s="65">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="B80" s="65">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
